--- a/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2021-22.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2021-22.xlsx
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2404,32 +2404,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Darius Bazley</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -2469,32 +2469,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Darius Bazley</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-12.3</t>
+          <t>-12.2</t>
         </is>
       </c>
     </row>
@@ -3639,32 +3639,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3704,32 +3704,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3749,17 +3749,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5089,12 +5089,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -5134,12 +5134,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5329,32 +5329,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -5394,32 +5394,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -6434,17 +6434,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6454,12 +6454,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -6499,32 +6499,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -6564,32 +6564,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -7864,32 +7864,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -7929,32 +7929,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8514,12 +8514,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chris Duarte</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8534,12 +8534,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -8579,17 +8579,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Chris Duarte</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8599,12 +8599,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8624,17 +8624,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -9164,32 +9164,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -9229,32 +9229,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -9619,32 +9619,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -9684,32 +9684,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -10984,32 +10984,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Willy Hernangomez</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -11049,32 +11049,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Willy Hernangomez</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -11244,12 +11244,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Aaron Wiggins</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -11264,12 +11264,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -11309,12 +11309,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Aaron Wiggins</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -11329,12 +11329,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -11634,32 +11634,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Carmelo Anthony</t>
+          <t>Garrison Mathews</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -11699,32 +11699,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Garrison Mathews</t>
+          <t>Carmelo Anthony</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mac McClung</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -12234,17 +12234,17 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>34.7</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -12284,12 +12284,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Mac McClung</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -12299,17 +12299,17 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>34.7</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Marcus Morris Sr.</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12499,12 +12499,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>-2.8</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Marcus Morris Sr.</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12564,12 +12564,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -13009,22 +13009,22 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -13044,17 +13044,17 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -13074,22 +13074,22 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -13194,12 +13194,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Bojan Bogdanovic</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -13214,12 +13214,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -13259,32 +13259,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -13324,32 +13324,32 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Bojan Bogdanovic</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -13899,7 +13899,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -13974,17 +13974,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13994,12 +13994,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14019,17 +14019,17 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -14039,17 +14039,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -14059,12 +14059,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -14084,17 +14084,17 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -14104,32 +14104,32 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
+          <t>Chimezie Metu</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14149,7 +14149,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -14169,32 +14169,32 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Chimezie Metu</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -14494,17 +14494,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14514,12 +14514,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -14539,17 +14539,17 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -14559,17 +14559,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14579,12 +14579,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14604,17 +14604,17 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -16119,17 +16119,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>BJ Johnson</t>
+          <t>Wes Iwundu</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -16164,17 +16164,17 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -16184,17 +16184,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Wes Iwundu</t>
+          <t>BJ Johnson</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -16229,17 +16229,17 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -16444,32 +16444,32 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16489,17 +16489,17 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -16509,32 +16509,32 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Hassani Gravett</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16554,17 +16554,17 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -16574,32 +16574,32 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -16619,17 +16619,17 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
@@ -16639,32 +16639,32 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Hassani Gravett</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16684,17 +16684,17 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -16834,17 +16834,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>D.J. Wilson</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -16854,12 +16854,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -16879,17 +16879,17 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -16899,32 +16899,32 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -16944,17 +16944,17 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -16964,32 +16964,32 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>D.J. Wilson</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -17009,17 +17009,17 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -17029,32 +17029,32 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -17074,17 +17074,17 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -19044,32 +19044,32 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -19089,17 +19089,17 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -19109,32 +19109,32 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -19154,17 +19154,17 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -19289,12 +19289,12 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -20149,17 +20149,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Troy Brown Jr.</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -20169,12 +20169,12 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -20184,7 +20184,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -20194,17 +20194,17 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -20214,17 +20214,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Troy Brown Jr.</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -20234,12 +20234,12 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -20249,7 +20249,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20259,17 +20259,17 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -20344,32 +20344,32 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -20389,17 +20389,17 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -20409,32 +20409,32 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -20454,17 +20454,17 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -20929,32 +20929,32 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -20974,17 +20974,17 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -20994,32 +20994,32 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -21029,7 +21029,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -21039,17 +21039,17 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -21709,22 +21709,22 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Carsen Edwards</t>
+          <t>Vernon Carey Jr.</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -21754,12 +21754,12 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -21774,22 +21774,22 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Vernon Carey Jr.</t>
+          <t>Carsen Edwards</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -21809,7 +21809,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -21819,12 +21819,12 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -21839,32 +21839,32 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Kent Bazemore</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -21884,17 +21884,17 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -21904,32 +21904,32 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Kent Bazemore</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -21949,17 +21949,17 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -22099,32 +22099,32 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -22134,7 +22134,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -22144,17 +22144,17 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -22164,32 +22164,32 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -22199,7 +22199,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -22209,17 +22209,17 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
@@ -22229,32 +22229,32 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -22274,17 +22274,17 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -22674,7 +22674,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -23009,32 +23009,32 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Georgios Kalaitzakis</t>
+          <t>Daniel Oturu</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -23054,17 +23054,17 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -23139,32 +23139,32 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Daniel Oturu</t>
+          <t>Georgios Kalaitzakis</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -23174,7 +23174,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -23184,17 +23184,17 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -23724,17 +23724,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Terence Davis</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -23744,12 +23744,12 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -23769,17 +23769,17 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -23789,17 +23789,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Terence Davis</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -23809,12 +23809,12 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -23834,17 +23834,17 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -24504,32 +24504,32 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Jeff Dowtin</t>
+          <t>Micah Potter</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -24539,7 +24539,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -24549,17 +24549,17 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>11.6</t>
         </is>
       </c>
     </row>
@@ -24569,32 +24569,32 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Micah Potter</t>
+          <t>Josh Christopher</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -24604,7 +24604,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -24614,17 +24614,17 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -24634,17 +24634,17 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Josh Christopher</t>
+          <t>Jeff Dowtin</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -24654,12 +24654,12 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -24679,17 +24679,17 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>-5.0</t>
         </is>
       </c>
     </row>
@@ -25919,12 +25919,12 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -26054,7 +26054,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -26194,17 +26194,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Ish Smith</t>
+          <t>Cassius Stanley</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -26214,12 +26214,12 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
@@ -26229,7 +26229,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -26239,17 +26239,17 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>-6.7</t>
         </is>
       </c>
     </row>
@@ -26259,17 +26259,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Cassius Stanley</t>
+          <t>Ish Smith</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -26279,12 +26279,12 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -26294,7 +26294,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -26304,17 +26304,17 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -26389,17 +26389,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Gabe York</t>
+          <t>Xavier Moon</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -26409,12 +26409,12 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
@@ -26424,7 +26424,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -26434,17 +26434,17 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>-13.1</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -26454,17 +26454,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -26474,12 +26474,12 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -26489,7 +26489,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -26499,17 +26499,17 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>17.3</t>
         </is>
       </c>
     </row>
@@ -26519,17 +26519,17 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -26539,12 +26539,12 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -26554,7 +26554,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -26564,17 +26564,17 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -26584,17 +26584,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Xavier Moon</t>
+          <t>Gabe York</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -26604,12 +26604,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -26629,17 +26629,17 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-13.1</t>
         </is>
       </c>
     </row>
@@ -26649,32 +26649,32 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Norvel Pelle</t>
+          <t>Cameron McGriff</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -26694,17 +26694,17 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -26714,32 +26714,32 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cameron McGriff</t>
+          <t>Norvel Pelle</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -26749,7 +26749,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -26759,17 +26759,17 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>16.4</t>
         </is>
       </c>
     </row>
@@ -27114,7 +27114,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -27894,7 +27894,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -28264,7 +28264,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -28274,32 +28274,32 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -28309,7 +28309,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -28319,17 +28319,17 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -28339,32 +28339,32 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -28374,7 +28374,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -28384,17 +28384,17 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -28524,7 +28524,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -28794,32 +28794,32 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Lance Stephenson</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -28829,7 +28829,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -28839,17 +28839,17 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -28859,32 +28859,32 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Lance Stephenson</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -28894,7 +28894,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -28904,17 +28904,17 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -29444,32 +29444,32 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Didi Louzada</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -29479,7 +29479,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -29489,17 +29489,17 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -29509,32 +29509,32 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Didi Louzada</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -29554,17 +29554,17 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -29694,7 +29694,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>11.7</t>
         </is>
       </c>
     </row>
@@ -29769,17 +29769,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Isaiah Thomas</t>
+          <t>Trayvon Palmer</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -29789,12 +29789,12 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -29814,17 +29814,17 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>37.7</t>
         </is>
       </c>
     </row>
@@ -29834,17 +29834,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Langston Galloway</t>
+          <t>Matt Thomas</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -29854,12 +29854,12 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -29879,17 +29879,17 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -29899,17 +29899,17 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Langston Galloway</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -29919,12 +29919,12 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -29934,7 +29934,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -29944,17 +29944,17 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -29964,17 +29964,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Trayvon Palmer</t>
+          <t>Isaiah Thomas</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -29984,12 +29984,12 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -29999,7 +29999,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -30009,17 +30009,17 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -30029,17 +30029,17 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Matt Thomas</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -30049,12 +30049,12 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -30074,17 +30074,17 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -30274,7 +30274,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
@@ -30994,7 +30994,7 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -31319,7 +31319,7 @@
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -31379,12 +31379,12 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -31574,7 +31574,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M480" t="inlineStr">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
@@ -32054,7 +32054,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -32094,7 +32094,7 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
@@ -32239,32 +32239,32 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Chris Silva</t>
+          <t>Ed Davis</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -32284,17 +32284,17 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -32304,32 +32304,32 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Ed Davis</t>
+          <t>Chris Silva</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -32349,17 +32349,17 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -32369,32 +32369,32 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tremont Waters</t>
+          <t>Jarrett Culver</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -32404,27 +32404,27 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
           <t>2.7</t>
-        </is>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>43.3</t>
-        </is>
-      </c>
-      <c r="M493" t="inlineStr">
-        <is>
-          <t>18.3</t>
         </is>
       </c>
     </row>
@@ -32434,32 +32434,32 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Jarrett Culver</t>
+          <t>Tremont Waters</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -32469,7 +32469,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -32479,17 +32479,17 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>18.1</t>
         </is>
       </c>
     </row>
@@ -32564,32 +32564,32 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
@@ -32609,17 +32609,17 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -32629,32 +32629,32 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -32674,17 +32674,17 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -33084,22 +33084,22 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Jemerrio Jones</t>
+          <t>Jordan Goodwin</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -33119,7 +33119,7 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
@@ -33129,17 +33129,17 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>30.7</t>
         </is>
       </c>
     </row>
@@ -33149,32 +33149,32 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Emanuel Terry</t>
+          <t>Emmanuel Mudiay</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
@@ -33194,17 +33194,17 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>-13.2</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -33214,22 +33214,22 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Emmanuel Mudiay</t>
+          <t>Jemerrio Jones</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -33264,12 +33264,12 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -33279,32 +33279,32 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Jordan Goodwin</t>
+          <t>Emanuel Terry</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -33314,7 +33314,7 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
@@ -33324,17 +33324,17 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>-13.2</t>
         </is>
       </c>
     </row>
@@ -33529,7 +33529,7 @@
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>10.4</t>
         </is>
       </c>
     </row>
@@ -33979,7 +33979,7 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
@@ -34004,7 +34004,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -35229,32 +35229,32 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Joe Wieskamp</t>
+          <t>James Ennis III</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -35264,7 +35264,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
@@ -35274,17 +35274,17 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -35294,32 +35294,32 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>James Ennis III</t>
+          <t>Craig Sword</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -35329,7 +35329,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
@@ -35339,17 +35339,17 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="M538" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-9.7</t>
         </is>
       </c>
     </row>
@@ -35359,32 +35359,32 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Sekou Doumbouya</t>
+          <t>Joe Wieskamp</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -35394,7 +35394,7 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
@@ -35404,17 +35404,17 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="M539" t="inlineStr">
         <is>
-          <t>-44.2</t>
+          <t>13.3</t>
         </is>
       </c>
     </row>
@@ -35424,22 +35424,22 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Quinndary Weatherspoon</t>
+          <t>Isaiah Todd</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
@@ -35469,17 +35469,17 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M540" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
@@ -35489,17 +35489,17 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Isaiah Todd</t>
+          <t>Robert Woodard II</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -35509,12 +35509,12 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
@@ -35524,7 +35524,7 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
@@ -35534,17 +35534,17 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M541" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -35554,17 +35554,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Craig Sword</t>
+          <t>Quinndary Weatherspoon</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -35574,12 +35574,12 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -35589,7 +35589,7 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
@@ -35599,17 +35599,17 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M542" t="inlineStr">
         <is>
-          <t>-9.7</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -35619,17 +35619,17 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Robert Woodard II</t>
+          <t>Sekou Doumbouya</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -35639,12 +35639,12 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
@@ -35654,7 +35654,7 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
@@ -35664,17 +35664,17 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>-44.2</t>
         </is>
       </c>
     </row>
@@ -36074,32 +36074,32 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Yves Pons</t>
+          <t>Wayne Selden</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -36109,7 +36109,7 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
@@ -36119,17 +36119,17 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M550" t="inlineStr">
         <is>
-          <t>-13.7</t>
+          <t>18.7</t>
         </is>
       </c>
     </row>
@@ -36139,22 +36139,22 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Trevelin Queen</t>
+          <t>Yves Pons</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -36174,7 +36174,7 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
@@ -36184,17 +36184,17 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="M551" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>-13.8</t>
         </is>
       </c>
     </row>
@@ -36204,17 +36204,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Wayne Selden</t>
+          <t>Trevelin Queen</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -36224,12 +36224,12 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
@@ -36254,12 +36254,12 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="M552" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>19.4</t>
         </is>
       </c>
     </row>
@@ -36269,32 +36269,32 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Myles Powell</t>
+          <t>Trevon Scott</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -36304,7 +36304,7 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
@@ -36314,17 +36314,17 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="M553" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -36334,17 +36334,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>RJ Nembhard Jr.</t>
+          <t>Myles Powell</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -36354,12 +36354,12 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -36369,7 +36369,7 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
@@ -36379,17 +36379,17 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="M554" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -36464,7 +36464,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Trevon Scott</t>
+          <t>RJ Nembhard Jr.</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -36474,22 +36474,22 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -36514,12 +36514,12 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M556" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>3.1</t>
         </is>
       </c>
     </row>
@@ -36529,17 +36529,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Rob Edwards</t>
+          <t>Mason Jones</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -36549,12 +36549,12 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -36564,7 +36564,7 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
@@ -36574,17 +36574,17 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M557" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>-14.8</t>
         </is>
       </c>
     </row>
@@ -36594,17 +36594,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Mason Jones</t>
+          <t>Rob Edwards</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -36614,12 +36614,12 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
@@ -36629,7 +36629,7 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
@@ -36639,17 +36639,17 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="M558" t="inlineStr">
         <is>
-          <t>-14.8</t>
+          <t>16.2</t>
         </is>
       </c>
     </row>
@@ -36789,12 +36789,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Miye Oni</t>
+          <t>JaQuori McLaughlin</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -36804,17 +36804,17 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
@@ -36824,7 +36824,7 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
@@ -36834,17 +36834,17 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>7.2</t>
         </is>
       </c>
     </row>
@@ -36854,32 +36854,32 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Dakota Mathias</t>
+          <t>Jordan Bell</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -36889,7 +36889,7 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
@@ -36899,17 +36899,17 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M562" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>55.8</t>
         </is>
       </c>
     </row>
@@ -36919,32 +36919,32 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Jaylen Morris</t>
+          <t>Sam Dekker</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
@@ -36954,7 +36954,7 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
@@ -36964,17 +36964,17 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="M563" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -36984,32 +36984,32 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Sharife Cooper</t>
+          <t>Moses Wright</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -37019,7 +37019,7 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
@@ -37029,17 +37029,17 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M564" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -37049,32 +37049,32 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Kai Jones</t>
+          <t>Miye Oni</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -37084,7 +37084,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
@@ -37094,17 +37094,17 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="M565" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -37114,12 +37114,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>JaQuori McLaughlin</t>
+          <t>DaQuan Jeffries</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -37129,7 +37129,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -37164,12 +37164,12 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M566" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
@@ -37179,7 +37179,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>DaQuan Jeffries</t>
+          <t>Shaq Buchanan</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -37189,22 +37189,22 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -37214,7 +37214,7 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
@@ -37224,17 +37224,17 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="M567" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>-43.2</t>
         </is>
       </c>
     </row>
@@ -37244,22 +37244,22 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Sam Dekker</t>
+          <t>Javin DeLaurier</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -37294,12 +37294,12 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="M568" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-11.1</t>
         </is>
       </c>
     </row>
@@ -37309,32 +37309,32 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Moses Wright</t>
+          <t>Jarron Cumberland</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -37344,7 +37344,7 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
@@ -37354,17 +37354,17 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M569" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>-59.3</t>
         </is>
       </c>
     </row>
@@ -37374,17 +37374,17 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Jordan Bell</t>
+          <t>Zylan Cheatham</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -37409,27 +37409,27 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J570" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="M570" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>-42.0</t>
         </is>
       </c>
     </row>
@@ -37439,17 +37439,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Shaq Buchanan</t>
+          <t>Sharife Cooper</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -37459,12 +37459,12 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
@@ -37474,7 +37474,7 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
@@ -37484,17 +37484,17 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="M571" t="inlineStr">
         <is>
-          <t>-43.2</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -37504,32 +37504,32 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Javin DeLaurier</t>
+          <t>Dakota Mathias</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -37554,12 +37554,12 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="M572" t="inlineStr">
         <is>
-          <t>-11.1</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -37569,32 +37569,32 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Damyean Dotson</t>
+          <t>Kai Jones</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -37604,7 +37604,7 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
@@ -37614,17 +37614,17 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M573" t="inlineStr">
         <is>
-          <t>-39.1</t>
+          <t>10.6</t>
         </is>
       </c>
     </row>
@@ -37634,17 +37634,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Jarron Cumberland</t>
+          <t>Jaylen Morris</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -37654,12 +37654,12 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -37669,7 +37669,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
@@ -37679,17 +37679,17 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M574" t="inlineStr">
         <is>
-          <t>-59.3</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -37699,22 +37699,22 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Zylan Cheatham</t>
+          <t>Damyean Dotson</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -37749,12 +37749,12 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M575" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-39.1</t>
         </is>
       </c>
     </row>
@@ -38154,17 +38154,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Cat Barber</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -38189,7 +38189,7 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
@@ -38199,17 +38199,17 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M582" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -38219,22 +38219,22 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Anthony Lamb</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -38269,12 +38269,12 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="M583" t="inlineStr">
         <is>
-          <t>-10.5</t>
+          <t>13.3</t>
         </is>
       </c>
     </row>
@@ -38284,22 +38284,22 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Cat Barber</t>
+          <t>Anthony Lamb</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -38319,7 +38319,7 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
@@ -38329,17 +38329,17 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M584" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>-10.5</t>
         </is>
       </c>
     </row>
@@ -38609,17 +38609,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Jaysean Paige</t>
+          <t>Scottie Lewis</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -38644,7 +38644,7 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
@@ -38654,17 +38654,17 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M589" t="inlineStr">
         <is>
-          <t>-49.1</t>
+          <t>50.5</t>
         </is>
       </c>
     </row>
@@ -38674,12 +38674,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Scottie Lewis</t>
+          <t>Joel Ayayi</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -38694,12 +38694,12 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
@@ -38709,27 +38709,27 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J590" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M590" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>-47.5</t>
         </is>
       </c>
     </row>
@@ -38739,22 +38739,22 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Joe Johnson</t>
+          <t>David Johnson</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -38774,27 +38774,27 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J591" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M591" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>-36.4</t>
         </is>
       </c>
     </row>
@@ -38804,32 +38804,32 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Arnoldas Kulboka</t>
+          <t>Jon Teske</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
@@ -38854,12 +38854,12 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M592" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>56.2</t>
         </is>
       </c>
     </row>
@@ -38869,17 +38869,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Joel Ayayi</t>
+          <t>Jaysean Paige</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -38889,12 +38889,12 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
@@ -38919,12 +38919,12 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="M593" t="inlineStr">
         <is>
-          <t>-47.5</t>
+          <t>-49.1</t>
         </is>
       </c>
     </row>
@@ -38934,22 +38934,22 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Malik Newman</t>
+          <t>Arnoldas Kulboka</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -38969,7 +38969,7 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
@@ -38979,17 +38979,17 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M594" t="inlineStr">
         <is>
-          <t>-16.7</t>
+          <t>46.2</t>
         </is>
       </c>
     </row>
@@ -38999,17 +38999,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>David Johnson</t>
+          <t>Malik Newman</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -39049,12 +39049,12 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="M595" t="inlineStr">
         <is>
-          <t>-36.4</t>
+          <t>-16.7</t>
         </is>
       </c>
     </row>
@@ -39064,32 +39064,32 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Jon Teske</t>
+          <t>CJ Miles</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
@@ -39114,12 +39114,12 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="M596" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>67.4</t>
         </is>
       </c>
     </row>
@@ -39129,7 +39129,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>CJ Miles</t>
+          <t>Joe Johnson</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -39139,12 +39139,12 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -39179,12 +39179,12 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="M597" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>62.1</t>
         </is>
       </c>
     </row>
